--- a/DownloadDataForDK/ModelData/id2g_H.xlsx
+++ b/DownloadDataForDK/ModelData/id2g_H.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Coal</t>
+          <t>id_DK_Central_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Natgas</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Natgas</t>
+          <t>id_DK_Central_BH_Natgas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Natgas</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Oil</t>
+          <t>id_DK_Central_IndustryH_Natgas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Oil</t>
+          <t>id_DK_Central_BH_Oil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Waste</t>
+          <t>id_DK_Central_IndustryH_Oil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Waste</t>
+          <t>id_DK_Central_BH_Waste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>id_DK_Central_EP</t>
+          <t>id_DK_Central_BP_Waste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPstandard</t>
+          <t>id_DK_Central_EP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPsurplusheat</t>
+          <t>id_DK_Central_GT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id_DK_Central_IH</t>
+          <t>id_DK_Central_HPstandard</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH</t>
+          <t>id_DK_Central_HPsurplusheat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id_DK_Central_SH</t>
+          <t>id_DK_Central_IH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,252 +688,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>id_DK_Central_IndustryH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DK_Decentral</t>
+          <t>DK_Central</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_Central_SH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Waste</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_EP</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_GT</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_SH</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
+          <t>DK_Central</t>
         </is>
       </c>
     </row>
